--- a/Excels/data/2003.xlsx
+++ b/Excels/data/2003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6902FF67-C00C-4748-BE19-4C3F8DBC4892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D69187E-492E-4B56-96D4-682E42041A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="18075" windowHeight="12255" tabRatio="893" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5850" windowWidth="18075" windowHeight="12255" tabRatio="893" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="6" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5851" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6048" uniqueCount="592">
   <si>
     <t>Pos</t>
   </si>
@@ -1987,7 +1987,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2006,15 +2006,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3174,178 +3189,185 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025A346E-BE7A-4512-8100-ABBC8CD19B24}">
-  <dimension ref="A1:Z88"/>
+  <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89:B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>586</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>23</v>
       </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
       <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
+      <c r="B3" t="s">
+        <v>588</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>22</v>
@@ -3357,205 +3379,217 @@
         <v>22</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
+      <c r="B4" t="s">
+        <v>588</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
+      <c r="B7" t="s">
+        <v>588</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J7" s="3" t="s">
         <v>24</v>
       </c>
@@ -3566,170 +3600,179 @@
         <v>24</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
+      <c r="B9" t="s">
+        <v>588</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>148</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="O10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3737,106 +3780,117 @@
         <v>24</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" t="s">
+        <v>588</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -3845,127 +3899,136 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q13" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
+      <c r="B14" t="s">
+        <v>588</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="O14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s">
+        <v>588</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3975,46 +4038,47 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
+        <v>588</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>31</v>
@@ -4023,61 +4087,64 @@
         <v>31</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K18" s="2" t="s">
         <v>24</v>
       </c>
@@ -4085,171 +4152,185 @@
         <v>24</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
+        <v>588</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
+        <v>588</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="M20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="O20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
+      <c r="B21" t="s">
+        <v>588</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" t="s">
+        <v>588</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4259,199 +4340,211 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
+        <v>588</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>148</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
+        <v>588</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>245</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
+        <v>588</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" t="s">
+        <v>588</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4461,12 +4554,15 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" t="s">
+        <v>588</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -4475,9 +4571,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
         <v>24</v>
       </c>
@@ -4485,61 +4579,64 @@
         <v>24</v>
       </c>
       <c r="N27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>588</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="M28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="O28" s="2" t="s">
         <v>24</v>
       </c>
@@ -4549,175 +4646,187 @@
       <c r="Q28" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
+        <v>588</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" t="s">
+        <v>588</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>24</v>
+      <c r="B32" t="s">
+        <v>588</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
         <v>24</v>
       </c>
@@ -4725,73 +4834,81 @@
         <v>24</v>
       </c>
       <c r="K32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>153</v>
+      <c r="B33" t="s">
+        <v>588</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>153</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" t="s">
+        <v>588</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -4802,115 +4919,119 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q34" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
+        <v>588</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
+        <v>588</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="N36" s="2" t="s">
         <v>24</v>
       </c>
@@ -4921,143 +5042,157 @@
         <v>24</v>
       </c>
       <c r="Q36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>24</v>
+      <c r="B37" t="s">
+        <v>588</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M37" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="O37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" t="s">
+        <v>588</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="P39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" t="s">
+        <v>588</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -5072,15 +5207,18 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2" t="s">
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" t="s">
+        <v>588</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -5091,27 +5229,30 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="3"/>
+      <c r="N41" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" t="s">
+        <v>588</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5121,58 +5262,64 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="2"/>
+      <c r="M42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" t="s">
+        <v>588</v>
+      </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3" t="s">
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" t="s">
+        <v>588</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -5181,12 +5328,15 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" t="s">
+        <v>588</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -5194,101 +5344,110 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" t="s">
+        <v>588</v>
+      </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="2"/>
+      <c r="M46" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="2" t="s">
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>24</v>
+      <c r="B47" t="s">
+        <v>588</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="3"/>
+      <c r="M47" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
+        <v>588</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -5299,36 +5458,39 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
+        <v>588</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -5338,15 +5500,18 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="2"/>
+      <c r="B50" t="s">
+        <v>588</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5357,25 +5522,28 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="2" t="s">
+      <c r="N50" s="2"/>
+      <c r="O50" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" t="s">
+        <v>588</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -5386,61 +5554,67 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
+        <v>588</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I52" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" t="s">
+        <v>588</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -5448,12 +5622,15 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" t="s">
+        <v>588</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -5465,27 +5642,30 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="2" t="s">
+      <c r="N54" s="2"/>
+      <c r="O54" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" t="s">
+        <v>588</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -5494,22 +5674,25 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" t="s">
+        <v>588</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -5517,12 +5700,15 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="2"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" t="s">
+        <v>588</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5531,24 +5717,27 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="3"/>
+      <c r="L57" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="2"/>
+      <c r="B58" t="s">
+        <v>588</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -5559,24 +5748,27 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="2" t="s">
+      <c r="N58" s="2"/>
+      <c r="O58" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="2"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" t="s">
+        <v>588</v>
+      </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -5588,20 +5780,23 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" t="s">
+        <v>588</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -5611,22 +5806,25 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" t="s">
+        <v>588</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="3"/>
+      <c r="J61" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -5634,12 +5832,15 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" t="s">
+        <v>588</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5648,28 +5849,31 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="2"/>
+      <c r="L62" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="2"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" t="s">
+        <v>588</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -5680,22 +5884,25 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="3"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" t="s">
+        <v>588</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -5703,12 +5910,15 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" t="s">
+        <v>588</v>
+      </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5717,24 +5927,27 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="3"/>
+      <c r="L65" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
+        <v>588</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -5749,17 +5962,20 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66" s="2"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" t="s">
+        <v>588</v>
+      </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -5772,19 +5988,22 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" t="s">
+        <v>588</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -5795,47 +6014,53 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" t="s">
+        <v>588</v>
+      </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F69" s="3"/>
-      <c r="G69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="3" t="s">
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" t="s">
+        <v>588</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -5847,18 +6072,21 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70" s="2"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" t="s">
+        <v>588</v>
+      </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -5870,18 +6098,21 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71" s="3"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" t="s">
+        <v>588</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -5893,18 +6124,21 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72" s="2"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" t="s">
+        <v>588</v>
+      </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -5916,21 +6150,24 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" t="s">
+        <v>588</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -5939,21 +6176,24 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74" s="2"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" t="s">
+        <v>588</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -5962,12 +6202,15 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" t="s">
+        <v>588</v>
+      </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5975,22 +6218,25 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76" s="2"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77" t="s">
+        <v>588</v>
+      </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5998,22 +6244,25 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77" s="3"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" t="s">
+        <v>588</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -6021,22 +6270,25 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" t="s">
+        <v>588</v>
+      </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6044,22 +6296,25 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79" s="3"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" t="s">
+        <v>588</v>
+      </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -6068,21 +6323,24 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81" t="s">
+        <v>588</v>
+      </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6094,18 +6352,21 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
-      <c r="N81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81" s="3"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" t="s">
+        <v>588</v>
+      </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -6119,16 +6380,19 @@
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
-      <c r="P82" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R82" s="2"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B83" s="3"/>
+      <c r="B83" t="s">
+        <v>588</v>
+      </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6142,19 +6406,22 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q83" s="3"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R83" s="3"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
+        <v>588</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -6169,22 +6436,25 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84" s="2"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B85" s="3"/>
+      <c r="B85" t="s">
+        <v>588</v>
+      </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="3"/>
+      <c r="J85" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -6192,12 +6462,15 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85" s="3"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" t="s">
+        <v>588</v>
+      </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -6206,21 +6479,24 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="2" t="s">
+      <c r="K86" s="2"/>
+      <c r="L86" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86" s="2"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B87" s="3"/>
+      <c r="B87" t="s">
+        <v>588</v>
+      </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6234,16 +6510,19 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
-      <c r="P87" s="3" t="s">
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="Q87" s="3"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87" s="3"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" t="s">
+        <v>588</v>
+      </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -6258,7 +6537,8 @@
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
-      <c r="Q88" s="2" t="s">
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -8108,7 +8388,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H37"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9095,10 +9375,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84D5F11-02E4-49D9-B419-E937B3D82367}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9106,119 +9386,122 @@
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>206</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>23</v>
       </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
       <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -9227,10 +9510,10 @@
         <v>20</v>
       </c>
       <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
       </c>
       <c r="P2" t="s">
         <v>20</v>
@@ -9238,123 +9521,132 @@
       <c r="Q2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
       <c r="B3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
       <c r="B4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
       <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
       <c r="B5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
@@ -9362,240 +9654,252 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>26</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>591</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
       <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>81</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>23</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
       <c r="B7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
       </c>
       <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>41</v>
       </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
       <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
       <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>131</v>
       </c>
       <c r="B8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" t="s">
         <v>24</v>
       </c>
       <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
         <v>26</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>23</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>31</v>
       </c>
-      <c r="N8" t="s">
-        <v>24</v>
-      </c>
       <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
         <v>29</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
       <c r="B9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C9" t="s">
         <v>147</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
       </c>
       <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
       <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
         <v>26</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
       </c>
       <c r="N9" t="s">
         <v>32</v>
@@ -9604,163 +9908,172 @@
         <v>32</v>
       </c>
       <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>140</v>
       </c>
       <c r="B10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
       </c>
       <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
         <v>148</v>
       </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
       <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
         <v>32</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>81</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>33</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>26</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>37</v>
       </c>
-      <c r="P10" t="s">
-        <v>24</v>
-      </c>
       <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>145</v>
       </c>
       <c r="B11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>81</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
       </c>
       <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>31</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>32</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>40</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>33</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>28</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>31</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>28</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>591</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
       <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>32</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
       </c>
       <c r="J12" t="s">
         <v>35</v>
       </c>
       <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
         <v>31</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>41</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>22</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>149</v>
-      </c>
-      <c r="O12" t="s">
-        <v>41</v>
       </c>
       <c r="P12" t="s">
         <v>41</v>
@@ -9768,188 +10081,200 @@
       <c r="Q12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
       <c r="B13" t="s">
+        <v>591</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>41</v>
       </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
       <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
         <v>29</v>
       </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
       <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
         <v>31</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>81</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>35</v>
       </c>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
       <c r="N13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" t="s">
         <v>35</v>
       </c>
-      <c r="O13" t="s">
-        <v>24</v>
-      </c>
       <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
       <c r="B14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
       <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
       <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
         <v>32</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>41</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>40</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>33</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>40</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>35</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>38</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>35</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
       <c r="B15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
       <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
       <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
         <v>33</v>
       </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
       <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
         <v>32</v>
       </c>
-      <c r="J15" t="s">
-        <v>24</v>
-      </c>
       <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
         <v>35</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>37</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>40</v>
-      </c>
-      <c r="N15" t="s">
-        <v>33</v>
       </c>
       <c r="O15" t="s">
         <v>33</v>
       </c>
       <c r="P15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>133</v>
       </c>
       <c r="B16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C16" t="s">
         <v>150</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>81</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>35</v>
       </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
       <c r="I16" t="s">
         <v>24</v>
       </c>
@@ -9957,118 +10282,130 @@
         <v>24</v>
       </c>
       <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
         <v>41</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>32</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>81</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>29</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>81</v>
       </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
       <c r="B17" t="s">
+        <v>591</v>
+      </c>
+      <c r="C17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
-      <c r="E18" t="s">
+      <c r="B18" t="s">
+        <v>591</v>
+      </c>
+      <c r="F18" t="s">
         <v>81</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>591</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
       <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
         <v>32</v>
       </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
       </c>
       <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
         <v>81</v>
       </c>
-      <c r="J19" t="s">
-        <v>24</v>
-      </c>
       <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
         <v>38</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>151</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>148</v>
       </c>
-      <c r="N19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>591</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
         <v>33</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
@@ -10079,208 +10416,220 @@
         <v>24</v>
       </c>
       <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
         <v>33</v>
       </c>
-      <c r="K20" t="s">
-        <v>24</v>
-      </c>
       <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s">
         <v>141</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>36</v>
       </c>
-      <c r="N20" t="s">
-        <v>24</v>
-      </c>
       <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" t="s">
         <v>38</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>81</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>118</v>
       </c>
       <c r="B21" t="s">
+        <v>591</v>
+      </c>
+      <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
         <v>37</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" t="s">
-        <v>38</v>
       </c>
       <c r="M21" t="s">
         <v>38</v>
       </c>
       <c r="N21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" t="s">
         <v>37</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>40</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
-      <c r="E22" t="s">
-        <v>35</v>
+      <c r="B22" t="s">
+        <v>591</v>
       </c>
       <c r="F22" t="s">
         <v>35</v>
       </c>
       <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
         <v>81</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>38</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>40</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>151</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>37</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>36</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>37</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>81</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>120</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>141</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>591</v>
       </c>
       <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
       <c r="F23" t="s">
         <v>24</v>
       </c>
       <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
         <v>36</v>
       </c>
-      <c r="H23" t="s">
-        <v>24</v>
-      </c>
       <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
         <v>37</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>81</v>
       </c>
-      <c r="K23" t="s">
-        <v>24</v>
-      </c>
       <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
         <v>147</v>
       </c>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
       <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" t="s">
         <v>40</v>
-      </c>
-      <c r="O23" t="s">
-        <v>151</v>
       </c>
       <c r="P23" t="s">
         <v>151</v>
       </c>
       <c r="Q23" t="s">
+        <v>151</v>
+      </c>
+      <c r="R23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
       <c r="B24" t="s">
+        <v>591</v>
+      </c>
+      <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>151</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>31</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>37</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>38</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>151</v>
-      </c>
-      <c r="I24" t="s">
-        <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>36</v>
       </c>
       <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
         <v>151</v>
       </c>
-      <c r="L24" t="s">
-        <v>24</v>
-      </c>
       <c r="M24" t="s">
         <v>24</v>
       </c>
@@ -10288,192 +10637,225 @@
         <v>24</v>
       </c>
       <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" t="s">
         <v>141</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>35</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B25" t="s">
+        <v>591</v>
+      </c>
+      <c r="E25" t="s">
         <v>36</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>40</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>41</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>38</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
-      <c r="N26" t="s">
+      <c r="B26" t="s">
+        <v>591</v>
+      </c>
+      <c r="O26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>127</v>
       </c>
-      <c r="O27" t="s">
+      <c r="B27" t="s">
+        <v>591</v>
+      </c>
+      <c r="P27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>124</v>
       </c>
-      <c r="H28" t="s">
-        <v>24</v>
+      <c r="B28" t="s">
+        <v>591</v>
       </c>
       <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
       <c r="B29" t="s">
+        <v>591</v>
+      </c>
+      <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>37</v>
       </c>
-      <c r="E29" t="s">
-        <v>24</v>
-      </c>
       <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
         <v>36</v>
       </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
       <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
         <v>40</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>38</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>141</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>36</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>120</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>151</v>
-      </c>
-      <c r="N29" t="s">
-        <v>36</v>
       </c>
       <c r="O29" t="s">
         <v>36</v>
       </c>
       <c r="P29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
       <c r="B30" t="s">
+        <v>591</v>
+      </c>
+      <c r="C30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>107</v>
       </c>
-      <c r="N31" t="s">
+      <c r="B31" t="s">
+        <v>591</v>
+      </c>
+      <c r="O31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
       <c r="B32" t="s">
+        <v>591</v>
+      </c>
+      <c r="C32" t="s">
         <v>151</v>
       </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="I33" t="s">
-        <v>24</v>
+      <c r="B33" t="s">
+        <v>591</v>
       </c>
       <c r="J33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" t="s">
         <v>147</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="L34" t="s">
+      <c r="B34" t="s">
+        <v>591</v>
+      </c>
+      <c r="M34" t="s">
         <v>153</v>
-      </c>
-      <c r="M34" t="s">
-        <v>141</v>
       </c>
       <c r="N34" t="s">
         <v>141</v>
       </c>
       <c r="O34" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="P34" t="s">
         <v>24</v>
       </c>
       <c r="Q34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
       <c r="B35" t="s">
+        <v>591</v>
+      </c>
+      <c r="C35" t="s">
         <v>148</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>148</v>
       </c>
-      <c r="M35" t="s">
-        <v>24</v>
-      </c>
       <c r="N35" t="s">
         <v>24</v>
       </c>
@@ -10481,33 +10863,45 @@
         <v>24</v>
       </c>
       <c r="P35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" t="s">
         <v>147</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="I36" t="s">
-        <v>24</v>
+      <c r="B36" t="s">
+        <v>591</v>
       </c>
       <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" t="s">
         <v>150</v>
       </c>
-      <c r="K36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12853,8 +13247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB85EBA2-4687-41C0-B169-07C26E5C90AC}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15492,10 +15886,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09866CD-7725-4CCC-B29F-EC9A146AFE18}">
-  <dimension ref="A1:Z72"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Z1"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15503,681 +15897,717 @@
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>586</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>23</v>
       </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
       <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
+      <c r="B2" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
+      <c r="B4" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
+      <c r="B5" s="4" t="s">
+        <v>590</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="N6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
+      <c r="B8" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="O8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
+      <c r="B9" s="4" t="s">
+        <v>590</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="P12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>41</v>
@@ -16189,150 +16619,161 @@
         <v>41</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
+      <c r="B14" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="O14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="P14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -16343,127 +16784,136 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="P17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
+      <c r="B18" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="N18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q18" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -16474,35 +16924,36 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H20" s="2" t="s">
         <v>24</v>
       </c>
@@ -16513,17 +16964,17 @@
         <v>24</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="O20" s="2" t="s">
         <v>24</v>
       </c>
@@ -16531,37 +16982,40 @@
         <v>24</v>
       </c>
       <c r="Q20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
+      <c r="B21" s="4" t="s">
+        <v>590</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>24</v>
       </c>
@@ -16569,130 +17023,139 @@
         <v>24</v>
       </c>
       <c r="L21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
+      <c r="B22" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>24</v>
+      <c r="B23" s="4" t="s">
+        <v>590</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
+      <c r="B24" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>24</v>
@@ -16701,101 +17164,107 @@
         <v>24</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="M24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3" t="s">
+      <c r="M25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>36</v>
@@ -16804,9 +17273,11 @@
         <v>36</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -16817,12 +17288,15 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -16833,30 +17307,33 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -16871,12 +17348,15 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -16888,28 +17368,31 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -16917,23 +17400,26 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -16942,51 +17428,57 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="M32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="O32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -16994,22 +17486,25 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -17021,18 +17516,21 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2" t="s">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -17041,112 +17539,119 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>141</v>
+      <c r="B36" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="R36" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>267</v>
+        <v>24</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>267</v>
@@ -17155,40 +17660,45 @@
         <v>267</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="M38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="2"/>
+      <c r="P38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -17196,33 +17706,36 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M39" s="3"/>
+      <c r="M39" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -17233,21 +17746,24 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -17256,21 +17772,24 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -17279,12 +17798,15 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -17293,21 +17815,24 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -17320,17 +17845,20 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="2"/>
+      <c r="P44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -17345,45 +17873,51 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -17396,12 +17930,15 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -17411,29 +17948,32 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="2"/>
+      <c r="M48" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -17442,12 +17982,15 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -17456,21 +17999,24 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="2"/>
+      <c r="L50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -17480,23 +18026,26 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="2"/>
+      <c r="B52" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -17507,21 +18056,24 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="N52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="3"/>
+      <c r="B53" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -17536,18 +18088,21 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -17559,20 +18114,23 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -17582,22 +18140,25 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -17605,22 +18166,25 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="2"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -17628,12 +18192,15 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -17641,22 +18208,25 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="2"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -17664,22 +18234,25 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -17693,21 +18266,24 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-      <c r="P60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q60" s="2"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -17719,21 +18295,24 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
-      <c r="Q61" s="3" t="s">
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -17745,21 +18324,24 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="2"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -17768,22 +18350,25 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="3"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -17791,12 +18376,15 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -17804,22 +18392,25 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -17832,17 +18423,20 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
-      <c r="O66" s="2" t="s">
+      <c r="O66" s="2"/>
+      <c r="P66" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66" s="2"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -17856,16 +18450,19 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="3" t="s">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -17879,16 +18476,19 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="2" t="s">
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -17902,16 +18502,19 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="3" t="s">
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="Q69" s="3"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -17925,16 +18528,19 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
-      <c r="P70" s="2" t="s">
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Q70" s="2"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70" s="2"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -17949,25 +18555,28 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
-      <c r="Q71" s="3" t="s">
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="2" t="s">
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -17975,6 +18584,133 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20905,7 +21641,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
